--- a/Project BMS  Daily MoM.xlsx
+++ b/Project BMS  Daily MoM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>each members to prepare presentationfor  their requirements</t>
+  </si>
+  <si>
+    <t>Presentation done to Rohan sir  by all the team menbers</t>
+  </si>
+  <si>
+    <t>each members to search various I/O for their requirements, data types, min/max values, of each parameters</t>
+  </si>
+  <si>
+    <t>All team</t>
   </si>
 </sst>
 </file>
@@ -536,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,216 +601,222 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,53 +1116,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="86" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
       <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="15">
-        <v>44476</v>
+        <v>44478</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="87" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="16">
-        <v>0.29166666666666669</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
       <c r="J3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1156,19 +1171,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="74" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="13" t="s">
         <v>27</v>
       </c>
@@ -1177,40 +1192,40 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1219,17 +1234,17 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="13" t="s">
         <v>18</v>
       </c>
@@ -1238,18 +1253,18 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="56" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="14" t="s">
@@ -1257,101 +1272,101 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="57"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="57"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="57"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="19" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="21" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -1359,34 +1374,34 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="5" t="s">
         <v>53</v>
       </c>
@@ -1397,7 +1412,7 @@
     <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="29"/>
@@ -1425,89 +1440,91 @@
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="43" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="9"/>
       <c r="I19" s="6"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I20" s="6">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="86" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
       <c r="J21" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K21" s="15">
-        <v>44475</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="87" t="s">
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
       <c r="J22" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K22" s="16">
-        <v>0.91666666666666663</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
       <c r="J23" s="11" t="s">
         <v>3</v>
       </c>
@@ -1516,19 +1533,19 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="74" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="13" t="s">
         <v>27</v>
       </c>
@@ -1537,19 +1554,19 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="13" t="s">
         <v>17</v>
       </c>
@@ -1558,38 +1575,38 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="77" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="13" t="s">
         <v>18</v>
       </c>
@@ -1598,18 +1615,18 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="56" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="59" t="s">
         <v>19</v>
       </c>
       <c r="K28" s="14" t="s">
@@ -1617,94 +1634,94 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="57"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="60"/>
       <c r="K29" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="57"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="60"/>
       <c r="K30" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="57"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="60"/>
       <c r="K31" s="14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="61"/>
       <c r="K32" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="47"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="18" t="s">
         <v>9</v>
       </c>
@@ -1719,36 +1736,36 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="39" t="s">
+      <c r="B35" s="42"/>
+      <c r="C35" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="5"/>
       <c r="I35" s="6"/>
       <c r="J35" s="7"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
       <c r="H36" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="8"/>
@@ -1757,7 +1774,9 @@
     <row r="37" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
-      <c r="C37" s="44"/>
+      <c r="C37" s="50" t="s">
+        <v>48</v>
+      </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
@@ -1770,7 +1789,9 @@
     <row r="38" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
+      <c r="C38" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
@@ -1781,83 +1802,89 @@
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="9"/>
       <c r="I39" s="6"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="6"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="6">
+        <v>44478</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="86" t="s">
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
       <c r="J41" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K41" s="15">
-        <v>44474</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="87" t="s">
+      <c r="A42" s="77"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
       <c r="J42" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K42" s="16" t="s">
-        <v>20</v>
+      <c r="K42" s="16">
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
       <c r="J43" s="11" t="s">
         <v>3</v>
       </c>
@@ -1866,19 +1893,19 @@
       </c>
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="74" t="s">
+      <c r="B44" s="51"/>
+      <c r="C44" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="13" t="s">
         <v>27</v>
       </c>
@@ -1887,40 +1914,40 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="74" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="77" t="s">
+      <c r="B46" s="51"/>
+      <c r="C46" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="12" t="s">
         <v>13</v>
       </c>
@@ -1929,17 +1956,17 @@
       </c>
     </row>
     <row r="47" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="55"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
       <c r="G47" s="30"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="70"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
       <c r="J47" s="13" t="s">
         <v>18</v>
       </c>
@@ -1948,18 +1975,18 @@
       </c>
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="73"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="56" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="59" t="s">
         <v>19</v>
       </c>
       <c r="K48" s="14" t="s">
@@ -1967,101 +1994,101 @@
       </c>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="57"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="60"/>
       <c r="K49" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="57"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="60"/>
       <c r="K50" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="57"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="60"/>
       <c r="K51" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="10" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="47"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="36"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50" t="s">
+      <c r="B54" s="38"/>
+      <c r="C54" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="2" t="s">
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="18" t="s">
         <v>9</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="18" t="s">
         <v>11</v>
       </c>
       <c r="K54" s="4" t="s">
@@ -2069,35 +2096,37 @@
       </c>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="39" t="s">
+      <c r="B55" s="42"/>
+      <c r="C55" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="5"/>
       <c r="I55" s="6"/>
       <c r="J55" s="7"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="5"/>
+    <row r="56" spans="1:11" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="I56" s="6"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -2105,9 +2134,7 @@
     <row r="57" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="27"/>
-      <c r="C57" s="44" t="s">
-        <v>44</v>
-      </c>
+      <c r="C57" s="50"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -2120,9 +2147,7 @@
     <row r="58" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
       <c r="B58" s="27"/>
-      <c r="C58" s="28" t="s">
-        <v>45</v>
-      </c>
+      <c r="C58" s="28"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
@@ -2133,557 +2158,862 @@
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="90"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43" t="s">
+      <c r="B60" s="33"/>
+      <c r="C60" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
       <c r="H60" s="9"/>
       <c r="I60" s="6"/>
       <c r="J60" s="9"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="33"/>
-    </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-    </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-    </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A64" s="80"/>
-      <c r="B64" s="81"/>
-      <c r="C64" s="86" t="s">
+    <row r="61" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="75"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="11" t="s">
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K64" s="15">
-        <v>44472</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A65" s="82"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="87" t="s">
+      <c r="K61" s="15">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="77"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="87"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
-      <c r="I65" s="87"/>
-      <c r="J65" s="11" t="s">
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="82"/>
+      <c r="I62" s="82"/>
+      <c r="J62" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K65" s="16" t="s">
+      <c r="K62" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="11" t="s">
+    <row r="63" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="79"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
+      <c r="J63" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K63" s="17">
         <v>40</v>
       </c>
     </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="51"/>
+      <c r="C64" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="51"/>
+      <c r="C66" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="67" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
+      <c r="A67" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="45"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="53"/>
       <c r="J67" s="13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>29</v>
+      <c r="A68" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="54"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="59"/>
-      <c r="C69" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>35</v>
+      <c r="A69" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="45"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="69"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="A70" s="62"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="60"/>
       <c r="K70" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="56" t="s">
-        <v>19</v>
-      </c>
+      <c r="A71" s="62"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="60"/>
       <c r="K71" s="14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="64"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="64"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="10" t="s">
+      <c r="A72" s="67"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="45" t="s">
+    <row r="73" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="47"/>
-    </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="36"/>
+    </row>
+    <row r="74" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="49"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="42"/>
+      <c r="C75" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="47"/>
+      <c r="C76" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="6"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="8"/>
-    </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="38"/>
-      <c r="C79" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+    </row>
+    <row r="79" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="25"/>
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="43" t="s">
+      <c r="B80" s="33"/>
+      <c r="C80" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
       <c r="H80" s="9"/>
       <c r="I80" s="6"/>
       <c r="J80" s="9"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
+    <row r="81" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="91"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="92"/>
+      <c r="H81" s="92"/>
+      <c r="I81" s="92"/>
+      <c r="J81" s="92"/>
+      <c r="K81" s="93"/>
     </row>
     <row r="82" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="26"/>
       <c r="B82" s="27"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="30"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="90"/>
       <c r="H82" s="9"/>
       <c r="I82" s="6"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="33"/>
-    </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-    </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-    </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
+    <row r="83" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="83"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="86"/>
+      <c r="F83" s="86"/>
+      <c r="G83" s="87"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+    </row>
+    <row r="84" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="75"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="81"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="81"/>
+      <c r="H84" s="81"/>
+      <c r="I84" s="81"/>
+      <c r="J84" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K84" s="15">
+        <v>44472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="77"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="82"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="82"/>
+      <c r="I85" s="82"/>
+      <c r="J85" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K85" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="79"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="82"/>
+      <c r="I86" s="82"/>
+      <c r="J86" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K86" s="17">
+        <v>40</v>
+      </c>
     </row>
     <row r="87" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
+      <c r="A87" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="51"/>
+      <c r="C87" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="88" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
+      <c r="A88" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="54"/>
+      <c r="C88" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="70"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="89" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
+      <c r="A89" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="51"/>
+      <c r="C89" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="45"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="54"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="45"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="62"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="62"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="67"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="61"/>
+      <c r="K95" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="36"/>
+    </row>
+    <row r="97" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="38"/>
+      <c r="C97" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="42"/>
+      <c r="C98" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="8"/>
+    </row>
+    <row r="99" spans="1:11" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="47"/>
+      <c r="C99" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+    </row>
+    <row r="100" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="33"/>
+      <c r="C100" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="8"/>
+    </row>
+    <row r="101" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="26"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+    </row>
+    <row r="102" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="26"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+    </row>
+    <row r="103" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="91"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="92"/>
+      <c r="J103" s="92"/>
+      <c r="K103" s="93"/>
+    </row>
+    <row r="104" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="26"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="90"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="83"/>
+      <c r="B105" s="84"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="87"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+    </row>
+    <row r="106" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="83"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="87"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+    </row>
+    <row r="107" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="83"/>
+      <c r="B107" s="84"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="86"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="86"/>
+      <c r="G107" s="87"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+    </row>
+    <row r="108" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="83"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="86"/>
+      <c r="E108" s="86"/>
+      <c r="F108" s="86"/>
+      <c r="G108" s="87"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+    </row>
+    <row r="109" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="83"/>
+      <c r="B109" s="84"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="86"/>
+      <c r="E109" s="86"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="87"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="204">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:J32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
+  <mergeCells count="251">
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
@@ -2725,60 +3055,163 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="A81:K81"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="C82:G82"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:G77"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="J68:J72"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A61:B63"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="C62:I62"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A84:B86"/>
+    <mergeCell ref="C84:I84"/>
+    <mergeCell ref="C85:I85"/>
+    <mergeCell ref="C86:I86"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:G79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="A83:K83"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J71:J75"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A73:B73"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="C68:G68"/>
     <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J91:J95"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="A103:K103"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
     <mergeCell ref="A41:B43"/>
     <mergeCell ref="C41:I41"/>
     <mergeCell ref="C42:I42"/>
@@ -2786,29 +3219,18 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A64:B66"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="C65:I65"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:I46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
     <mergeCell ref="J48:J52"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:G49"/>
@@ -2822,17 +3244,19 @@
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="C58:G58"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="C57:G57"/>
   </mergeCells>

--- a/Project BMS  Daily MoM.xlsx
+++ b/Project BMS  Daily MoM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>All team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussion done on BMS Inputs, outputs, various subsystems lists, </t>
+  </si>
+  <si>
+    <t>discussion done on to find list of components which operates on Battery</t>
+  </si>
+  <si>
+    <t>To study various PDF files, research papers related to BMS</t>
+  </si>
+  <si>
+    <t>Each team members to search BMS I/O, subsystems, list of components which uses on battery</t>
   </si>
 </sst>
 </file>
@@ -545,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,6 +624,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -687,59 +705,92 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -750,39 +801,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -798,6 +816,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -806,15 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1099,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G20"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,36 +1134,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="81" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
       <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="15">
-        <v>44478</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="82" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
       <c r="J2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1154,36 +1172,36 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
       <c r="J3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="17">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="69" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
       <c r="J4" s="13" t="s">
         <v>27</v>
       </c>
@@ -1192,40 +1210,40 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="69" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1234,17 +1252,17 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="13" t="s">
         <v>18</v>
       </c>
@@ -1253,18 +1271,18 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="14" t="s">
@@ -1272,203 +1290,197 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="60"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="57">
+        <v>44471</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="60"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="60"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="22" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="21" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="26" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="26" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="5" t="s">
-        <v>53</v>
-      </c>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="6"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="9"/>
       <c r="I17" s="6"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="9"/>
       <c r="I18" s="6"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="9"/>
       <c r="I19" s="6"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="6">
         <v>44479</v>
       </c>
@@ -1478,53 +1490,53 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="81" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K21" s="15">
-        <v>44476</v>
+        <v>44478</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="82" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K22" s="16">
-        <v>0.29166666666666669</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
       <c r="J23" s="11" t="s">
         <v>3</v>
       </c>
@@ -1533,19 +1545,19 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="69" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="13" t="s">
         <v>27</v>
       </c>
@@ -1554,40 +1566,40 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="69" t="s">
+      <c r="B25" s="70"/>
+      <c r="C25" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="72" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="12" t="s">
         <v>13</v>
       </c>
@@ -1596,17 +1608,17 @@
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="13" t="s">
         <v>18</v>
       </c>
@@ -1615,18 +1627,18 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59" t="s">
+      <c r="B28" s="70"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K28" s="14" t="s">
@@ -1634,101 +1646,101 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="60"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="54"/>
       <c r="K29" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="60"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="60"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="19" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="18" t="s">
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="21" t="s">
         <v>11</v>
       </c>
       <c r="K34" s="4" t="s">
@@ -1736,34 +1748,34 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="5"/>
       <c r="I35" s="6"/>
       <c r="J35" s="7"/>
       <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="43" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="5" t="s">
         <v>53</v>
       </c>
@@ -1772,119 +1784,121 @@
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="50" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="9"/>
       <c r="I37" s="6"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
       <c r="H38" s="9"/>
       <c r="I38" s="6"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
       <c r="H39" s="9"/>
       <c r="I39" s="6"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I40" s="6">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="J40" s="9"/>
-      <c r="K40" s="8"/>
+      <c r="K40" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="81" t="s">
+      <c r="A41" s="74"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
       <c r="J41" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K41" s="15">
-        <v>44475</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="82" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
       <c r="J42" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K42" s="16">
-        <v>0.91666666666666663</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
       <c r="J43" s="11" t="s">
         <v>3</v>
       </c>
@@ -1893,19 +1907,19 @@
       </c>
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="69" t="s">
+      <c r="B44" s="56"/>
+      <c r="C44" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
       <c r="J44" s="13" t="s">
         <v>27</v>
       </c>
@@ -1914,19 +1928,19 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="69" t="s">
+      <c r="B45" s="70"/>
+      <c r="C45" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
       <c r="J45" s="13" t="s">
         <v>17</v>
       </c>
@@ -1935,38 +1949,38 @@
       </c>
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="72" t="s">
+      <c r="B46" s="56"/>
+      <c r="C46" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
       <c r="J46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K46" s="20" t="s">
+      <c r="K46" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="13" t="s">
         <v>18</v>
       </c>
@@ -1975,18 +1989,18 @@
       </c>
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="59" t="s">
+      <c r="B48" s="70"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K48" s="14" t="s">
@@ -1994,94 +2008,94 @@
       </c>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="60"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="60"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="60"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="54"/>
       <c r="K51" s="14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="61"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="55"/>
       <c r="K52" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="39" t="s">
+      <c r="B54" s="40"/>
+      <c r="C54" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
       <c r="H54" s="18" t="s">
         <v>9</v>
       </c>
@@ -2096,145 +2110,155 @@
       </c>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43" t="s">
+      <c r="B55" s="44"/>
+      <c r="C55" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
       <c r="H55" s="5"/>
       <c r="I55" s="6"/>
       <c r="J55" s="7"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="49"/>
+    <row r="56" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="49"/>
+      <c r="C56" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="51"/>
       <c r="H56" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="30"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
       <c r="H57" s="9"/>
       <c r="I57" s="6"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="30"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="32"/>
       <c r="H58" s="9"/>
       <c r="I58" s="6"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
       <c r="H59" s="9"/>
       <c r="I59" s="6"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="32" t="s">
+      <c r="B60" s="35"/>
+      <c r="C60" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="6"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="6">
+        <v>44478</v>
+      </c>
       <c r="J60" s="9"/>
       <c r="K60" s="8"/>
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="81" t="s">
+      <c r="A61" s="74"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
       <c r="J61" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K61" s="15">
-        <v>44474</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="82" t="s">
+      <c r="A62" s="76"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="82"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
       <c r="J62" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K62" s="16" t="s">
-        <v>20</v>
+      <c r="K62" s="16">
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A63" s="79"/>
-      <c r="B63" s="80"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="82"/>
+      <c r="A63" s="78"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
       <c r="J63" s="11" t="s">
         <v>3</v>
       </c>
@@ -2243,19 +2267,19 @@
       </c>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="69" t="s">
+      <c r="B64" s="56"/>
+      <c r="C64" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
       <c r="J64" s="13" t="s">
         <v>27</v>
       </c>
@@ -2264,40 +2288,40 @@
       </c>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="69" t="s">
+      <c r="B65" s="70"/>
+      <c r="C65" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
       <c r="J65" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="72" t="s">
+      <c r="B66" s="56"/>
+      <c r="C66" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
       <c r="J66" s="12" t="s">
         <v>13</v>
       </c>
@@ -2306,17 +2330,17 @@
       </c>
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="53"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="67"/>
       <c r="J67" s="13" t="s">
         <v>18</v>
       </c>
@@ -2325,18 +2349,18 @@
       </c>
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="59" t="s">
+      <c r="B68" s="70"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K68" s="14" t="s">
@@ -2344,101 +2368,101 @@
       </c>
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="60"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="54"/>
       <c r="K69" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="60"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="60"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="54"/>
       <c r="K71" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
-      <c r="B72" s="68"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="10" t="s">
+      <c r="A72" s="68"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="36"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="38"/>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="39" t="s">
+      <c r="B74" s="40"/>
+      <c r="C74" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="2" t="s">
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="18" t="s">
         <v>9</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="18" t="s">
         <v>11</v>
       </c>
       <c r="K74" s="4" t="s">
@@ -2446,568 +2470,918 @@
       </c>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="42"/>
-      <c r="C75" s="43" t="s">
+      <c r="B75" s="44"/>
+      <c r="C75" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="45"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="47"/>
       <c r="H75" s="5"/>
       <c r="I75" s="6"/>
       <c r="J75" s="7"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="5"/>
+    <row r="76" spans="1:11" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="49"/>
+      <c r="C76" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="I76" s="6"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="30"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="32"/>
       <c r="H77" s="9"/>
       <c r="I77" s="6"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="30"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="32"/>
       <c r="H78" s="9"/>
       <c r="I78" s="6"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="25"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="32" t="s">
+      <c r="B80" s="35"/>
+      <c r="C80" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
       <c r="H80" s="9"/>
       <c r="I80" s="6"/>
       <c r="J80" s="9"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="91"/>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="92"/>
-      <c r="G81" s="92"/>
-      <c r="H81" s="92"/>
-      <c r="I81" s="92"/>
-      <c r="J81" s="92"/>
-      <c r="K81" s="93"/>
-    </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="90"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-    </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="83"/>
-      <c r="B83" s="84"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="86"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="86"/>
-      <c r="G83" s="87"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-    </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A84" s="75"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="81" t="s">
+    <row r="81" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A81" s="74"/>
+      <c r="B81" s="75"/>
+      <c r="C81" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="81"/>
-      <c r="E84" s="81"/>
-      <c r="F84" s="81"/>
-      <c r="G84" s="81"/>
-      <c r="H84" s="81"/>
-      <c r="I84" s="81"/>
-      <c r="J84" s="11" t="s">
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="80"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K84" s="15">
-        <v>44472</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
-      <c r="B85" s="78"/>
+      <c r="K81" s="15">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A82" s="76"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="81"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="81"/>
+      <c r="H82" s="81"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="78"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="56"/>
+      <c r="C84" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="70"/>
       <c r="C85" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="82"/>
-      <c r="I85" s="82"/>
-      <c r="J85" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K85" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A86" s="79"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="82"/>
-      <c r="H86" s="82"/>
-      <c r="I86" s="82"/>
-      <c r="J86" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K86" s="17">
+        <v>15</v>
+      </c>
+      <c r="D85" s="83"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="56"/>
+      <c r="C86" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="47"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="70"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="47"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="61"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="61"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="68"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="38"/>
+    </row>
+    <row r="94" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="40"/>
+      <c r="C94" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="44"/>
+      <c r="C95" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="8"/>
+    </row>
+    <row r="96" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="49"/>
+      <c r="C96" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+    </row>
+    <row r="97" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+    </row>
+    <row r="99" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="28"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="25"/>
+    </row>
+    <row r="100" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="35"/>
+      <c r="C100" s="34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="51"/>
-      <c r="C87" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K87" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K88" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="51"/>
-      <c r="C89" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="45"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K90" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="54"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="K91" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" s="45"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
-      <c r="B93" s="63"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
-      <c r="B94" s="63"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="60"/>
-      <c r="K94" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="36"/>
-    </row>
-    <row r="97" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="38"/>
-      <c r="C97" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="8"/>
-    </row>
-    <row r="99" spans="1:11" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="47"/>
-      <c r="C99" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" s="48"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-    </row>
-    <row r="100" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
       <c r="H100" s="9"/>
       <c r="I100" s="6"/>
       <c r="J100" s="9"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
+    <row r="101" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="90"/>
+      <c r="B101" s="91"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="91"/>
+      <c r="I101" s="91"/>
+      <c r="J101" s="91"/>
+      <c r="K101" s="92"/>
     </row>
     <row r="102" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="30"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="93"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="94"/>
+      <c r="G102" s="95"/>
       <c r="H102" s="9"/>
       <c r="I102" s="6"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
     </row>
-    <row r="103" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="91"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="92"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="92"/>
-      <c r="J103" s="92"/>
-      <c r="K103" s="93"/>
-    </row>
-    <row r="104" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="89"/>
-      <c r="F104" s="89"/>
-      <c r="G104" s="90"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-    </row>
-    <row r="105" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="83"/>
-      <c r="B105" s="84"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="87"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-    </row>
-    <row r="106" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="83"/>
-      <c r="B106" s="84"/>
-      <c r="C106" s="85"/>
-      <c r="D106" s="86"/>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="87"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
+    <row r="103" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="85"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="88"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="89"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+    </row>
+    <row r="104" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="74"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
+      <c r="H104" s="80"/>
+      <c r="I104" s="80"/>
+      <c r="J104" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K104" s="15">
+        <v>44472</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A105" s="76"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="81"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K105" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="78"/>
+      <c r="B106" s="79"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="81"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K106" s="17">
+        <v>40</v>
+      </c>
     </row>
     <row r="107" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="83"/>
-      <c r="B107" s="84"/>
-      <c r="C107" s="85"/>
-      <c r="D107" s="86"/>
-      <c r="E107" s="86"/>
-      <c r="F107" s="86"/>
-      <c r="G107" s="87"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
+      <c r="A107" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="56"/>
+      <c r="C107" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="83"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="84"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="60"/>
+      <c r="J107" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="108" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="83"/>
-      <c r="B108" s="84"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="86"/>
-      <c r="E108" s="86"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="87"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
+      <c r="A108" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="70"/>
+      <c r="C108" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="84"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="60"/>
+      <c r="J108" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="109" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="83"/>
-      <c r="B109" s="84"/>
-      <c r="C109" s="85"/>
-      <c r="D109" s="86"/>
-      <c r="E109" s="86"/>
-      <c r="F109" s="86"/>
-      <c r="G109" s="87"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
+      <c r="A109" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="56"/>
+      <c r="C109" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="60"/>
+      <c r="I109" s="60"/>
+      <c r="J109" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="47"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="70"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="60"/>
+      <c r="I111" s="60"/>
+      <c r="J111" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="47"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="58"/>
+      <c r="F112" s="58"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="60"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="61"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="61"/>
+      <c r="B114" s="62"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="68"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="59"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="38"/>
+    </row>
+    <row r="117" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="40"/>
+      <c r="C117" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" s="44"/>
+      <c r="C118" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="46"/>
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="8"/>
+    </row>
+    <row r="119" spans="1:11" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" s="49"/>
+      <c r="C119" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="50"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="51"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+    </row>
+    <row r="120" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" s="35"/>
+      <c r="C120" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="8"/>
+    </row>
+    <row r="121" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="28"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+    </row>
+    <row r="122" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="28"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+    </row>
+    <row r="123" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="90"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="91"/>
+      <c r="D123" s="91"/>
+      <c r="E123" s="91"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="91"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="91"/>
+      <c r="J123" s="91"/>
+      <c r="K123" s="92"/>
+    </row>
+    <row r="124" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="28"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="93"/>
+      <c r="D124" s="94"/>
+      <c r="E124" s="94"/>
+      <c r="F124" s="94"/>
+      <c r="G124" s="95"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+    </row>
+    <row r="125" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="85"/>
+      <c r="B125" s="86"/>
+      <c r="C125" s="87"/>
+      <c r="D125" s="88"/>
+      <c r="E125" s="88"/>
+      <c r="F125" s="88"/>
+      <c r="G125" s="89"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+    </row>
+    <row r="126" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="85"/>
+      <c r="B126" s="86"/>
+      <c r="C126" s="87"/>
+      <c r="D126" s="88"/>
+      <c r="E126" s="88"/>
+      <c r="F126" s="88"/>
+      <c r="G126" s="89"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+    </row>
+    <row r="127" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="85"/>
+      <c r="B127" s="86"/>
+      <c r="C127" s="87"/>
+      <c r="D127" s="88"/>
+      <c r="E127" s="88"/>
+      <c r="F127" s="88"/>
+      <c r="G127" s="89"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+    </row>
+    <row r="128" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="85"/>
+      <c r="B128" s="86"/>
+      <c r="C128" s="87"/>
+      <c r="D128" s="88"/>
+      <c r="E128" s="88"/>
+      <c r="F128" s="88"/>
+      <c r="G128" s="89"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+    </row>
+    <row r="129" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="85"/>
+      <c r="B129" s="86"/>
+      <c r="C129" s="87"/>
+      <c r="D129" s="88"/>
+      <c r="E129" s="88"/>
+      <c r="F129" s="88"/>
+      <c r="G129" s="89"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="251">
+  <mergeCells count="298">
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="A19:B19"/>
@@ -3055,25 +3429,27 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:G83"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:G78"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="C80:G80"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H66:I66"/>
     <mergeCell ref="A73:K73"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="C74:G74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="C75:G75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:I68"/>
     <mergeCell ref="J68:J72"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="C69:G69"/>
@@ -3087,84 +3463,176 @@
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="C72:G72"/>
     <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A61:B63"/>
-    <mergeCell ref="C61:I61"/>
-    <mergeCell ref="C62:I62"/>
-    <mergeCell ref="C63:I63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="C64:G64"/>
     <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A84:B86"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="C85:I85"/>
-    <mergeCell ref="C86:I86"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:I68"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="H65:I65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="A61:B63"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="C62:I62"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="J48:J52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A41:B43"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="A116:K116"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="A123:K123"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J111:J115"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="A81:B83"/>
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="A104:B106"/>
+    <mergeCell ref="C104:I104"/>
+    <mergeCell ref="C105:I105"/>
+    <mergeCell ref="C106:I106"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="C87:G87"/>
     <mergeCell ref="H87:I87"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:G88"/>
     <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="J88:J92"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="C89:G89"/>
     <mergeCell ref="H89:I89"/>
+    <mergeCell ref="A90:B90"/>
     <mergeCell ref="C90:G90"/>
-    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="A91:B91"/>
     <mergeCell ref="C91:G91"/>
     <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J91:J95"/>
     <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="H94:I94"/>
     <mergeCell ref="C92:G92"/>
     <mergeCell ref="H92:I92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="C97:G97"/>
-    <mergeCell ref="A96:K96"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="A103:K103"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="A105:B105"/>
     <mergeCell ref="A21:B23"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
@@ -3197,6 +3665,12 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
     <mergeCell ref="A33:K33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:G34"/>
@@ -3206,59 +3680,6 @@
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:G37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B43"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:J52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
